--- a/Grids_and_profiles/grids/lynn5buspv.xlsx
+++ b/Grids_and_profiles/grids/lynn5buspv.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GridCal\Grids_and_profiles\grids\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="8595" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="config" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="load" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="static_generator" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="battery" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="controlled_generator" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="bus" sheetId="2" r:id="rId2"/>
+    <sheet name="branch" sheetId="3" r:id="rId3"/>
+    <sheet name="load" sheetId="4" r:id="rId4"/>
+    <sheet name="static_generator" sheetId="5" r:id="rId5"/>
+    <sheet name="battery" sheetId="6" r:id="rId6"/>
+    <sheet name="controlled_generator" sheetId="7" r:id="rId7"/>
+    <sheet name="shunt" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
   <si>
     <t>Property</t>
   </si>
@@ -267,23 +271,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -298,26 +303,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -605,20 +627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,30 +642,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -659,35 +675,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -722,8 +731,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -760,8 +769,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -798,8 +807,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -836,8 +845,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -874,8 +883,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -913,25 +922,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +980,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -991,39 +996,39 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>70</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0.05</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.11</v>
       </c>
-      <c r="K2" t="n">
-        <v>9.999999999999999e-21</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="L2">
         <v>0.02</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1038,39 +1043,39 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0.06</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.13</v>
       </c>
-      <c r="K3" t="n">
-        <v>9.999999999999999e-21</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="K3">
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="L3">
         <v>0.03</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1085,39 +1090,39 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0.04</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.09</v>
       </c>
-      <c r="K4" t="n">
-        <v>9.999999999999999e-21</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4">
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="L4">
         <v>0.02</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1132,39 +1137,39 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.04</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.09</v>
       </c>
-      <c r="K5" t="n">
-        <v>9.999999999999999e-21</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="K5">
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="L5">
         <v>0.02</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1179,39 +1184,39 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>90</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0.03</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.08</v>
       </c>
-      <c r="K6" t="n">
-        <v>9.999999999999999e-21</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="K6">
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="L6">
         <v>0.02</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1226,39 +1231,39 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>60</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0.05</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.11</v>
       </c>
-      <c r="K7" t="n">
-        <v>1e-08</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="K7">
+        <v>1E-8</v>
+      </c>
+      <c r="L7">
         <v>0.02</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1273,31 +1278,31 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>30</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0.04</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.09</v>
       </c>
-      <c r="K8" t="n">
-        <v>9.999999999999999e-21</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K8">
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="L8">
         <v>0.02</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="b">
@@ -1305,25 +1310,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1343,8 +1342,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1366,8 +1365,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1389,8 +1388,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1413,25 +1412,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1446,25 +1439,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1503,25 +1490,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1556,8 +1537,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1569,33 +1550,33 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>9999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>-15</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>20</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>9999</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="n">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1607,51 +1588,45 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>9999</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-15</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>20</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>9999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1666,6 +1641,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>